--- a/target/classes/cv_resources/Test_Data.xlsx
+++ b/target/classes/cv_resources/Test_Data.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS_Project\First_06_05\Contentverse\src\main\java\cv_resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591F8508-2F54-429B-9229-C19560C4371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CV_LoginTestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="CV_SearchTestCase" sheetId="2" r:id="rId2"/>
+    <sheet name="CV_CreateDocumentTest" sheetId="3" r:id="rId3"/>
+    <sheet name="CV_SendToWorkflowTestcase" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>Username</t>
   </si>
@@ -231,13 +240,58 @@
   </si>
   <si>
     <t>DekstopReq-Form</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>ccl#123</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SCL_New</t>
+  </si>
+  <si>
+    <t>Create_Document</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Document_2024_05_08__03_14_52</t>
+  </si>
+  <si>
+    <t>Name Of Docs</t>
+  </si>
+  <si>
+    <t>NameOfDocs</t>
+  </si>
+  <si>
+    <t>Name Of WF</t>
+  </si>
+  <si>
+    <t>WorkFL</t>
+  </si>
+  <si>
+    <t>WF_FirstUser_UserName</t>
+  </si>
+  <si>
+    <t>WF_FirstUser_Password</t>
+  </si>
+  <si>
+    <t>WF_Status</t>
+  </si>
+  <si>
+    <t>Send_To_WF_06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -294,6 +348,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,47 +695,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -689,11 +764,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -716,11 +791,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -728,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
@@ -749,10 +824,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -769,14 +844,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -829,10 +904,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -885,37 +960,471 @@
         <v>40</v>
       </c>
       <c r="S13" s="1"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C0FBB1-E55A-48DA-B4B2-D637D9079DD6}">
+  <dimension ref="A2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE8566F-46C9-453D-943E-7E4C7F4A70E3}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D90A5-A464-4347-B755-1E648B1736F4}">
+  <dimension ref="A2:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
+        <v>9</v>
+      </c>
+      <c r="K11" s="11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="11">
+        <v>11</v>
+      </c>
+      <c r="M11" s="11">
+        <v>12</v>
+      </c>
+      <c r="N11" s="11">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/target/classes/cv_resources/Test_Data.xlsx
+++ b/target/classes/cv_resources/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMS_Project\First_06_05\Contentverse\src\main\java\cv_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591F8508-2F54-429B-9229-C19560C4371F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC5CF3-0393-439E-963B-E74B61BED900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>Username</t>
   </si>
@@ -284,7 +284,10 @@
     <t>WF_Status</t>
   </si>
   <si>
-    <t>Send_To_WF_06</t>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>Send_To_WF_15</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1227,7 @@
   <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1333,7 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
@@ -1378,7 +1381,7 @@
         <v>80</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
